--- a/biology/Histoire de la zoologie et de la botanique/Musée_de_la_nature_et_des_sciences_de_Denver/Musée_de_la_nature_et_des_sciences_de_Denver.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_de_la_nature_et_des_sciences_de_Denver/Musée_de_la_nature_et_des_sciences_de_Denver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_la_nature_et_des_sciences_de_Denver</t>
+          <t>Musée_de_la_nature_et_des_sciences_de_Denver</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Musée de la nature et des sciences de Denver est un musée d'histoire naturelle et des sciences situé dans la ville de Denver, dans l'État du Colorado. Il s'agit d'un centre d'éducation scientifique informelle dans la région des montagnes Rocheuses. Des expositions et des activités aident les visiteurs du musée à en apprendre davantage sur l'histoire naturelle du Colorado, de la Terre et de l'univers. Les bâtiments, qui couvrent plus de 45 000 m2, abritent plus d'un million d'objets dans les collections, dont des collections d'histoire naturelle et des matériaux anthropologiques, ainsi que des archives et une bibliothèque.
